--- a/secondary_study/papers copy.xlsx
+++ b/secondary_study/papers copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thela\Documents\codes\lop_\secondary_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A4EF56-25C3-411A-B5D8-41D7CF00AB28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1ABB00-F5D6-40F3-BEBD-60E412D400AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1691,7 +1691,7 @@
   <dimension ref="A1:AMJ147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
